--- a/data/trans_camb/P15B_tráfico-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.879814485787286</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.421656439578487</v>
+        <v>-5.421656439578484</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.51254346493991</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.35944923366618</v>
+        <v>-21.0618388681542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-31.32352723261756</v>
+        <v>-30.36074466887305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-31.30758514869494</v>
+        <v>-32.72989231885415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.101040082402582</v>
+        <v>-4.555429598812055</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.35708778182472</v>
+        <v>-13.21642254070349</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.70928112629395</v>
+        <v>-13.13061253314024</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.905431254422905</v>
+        <v>-5.236837620110666</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.9965784861248</v>
+        <v>-13.43193688860118</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.34769923799595</v>
+        <v>-15.14119447739532</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.1471272647975</v>
+        <v>28.82110329013908</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.83549014358015</v>
+        <v>18.47184989350019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.04897031166336</v>
+        <v>16.71800203545878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.00447134231644</v>
+        <v>27.12985724309299</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.54241332385015</v>
+        <v>19.3447900494892</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.883323791838</v>
+        <v>24.73832178933377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.37704154690717</v>
+        <v>23.42063702573995</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.41218550734186</v>
+        <v>15.37260150228838</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.9280329819596</v>
+        <v>16.50911705242655</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1342218809790116</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1875617836904207</v>
+        <v>-0.1875617836904206</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.082879041596831</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.45714947039975</v>
+        <v>-0.4535063151263046</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6141885917710489</v>
+        <v>-0.6141859572990139</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6903287273388053</v>
+        <v>-0.7589409798682193</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2869925976852106</v>
+        <v>-0.2187672861195708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5914750011389441</v>
+        <v>-0.6009283347303275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6316009534547853</v>
+        <v>-0.7636439187444234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1971470631495136</v>
+        <v>-0.1917610120253212</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4442654765535068</v>
+        <v>-0.4629766043594087</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5167470436400255</v>
+        <v>-0.5271729620087828</v>
       </c>
     </row>
     <row r="9">
@@ -815,29 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.353504752133933</v>
+        <v>2.728570506922871</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.378308369290777</v>
+        <v>1.867234975188212</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.894136072165569</v>
+        <v>1.462423542297289</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.567294428704936</v>
+        <v>6.709224795280352</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.274637892698469</v>
-      </c>
-      <c r="H9" s="6" t="inlineStr"/>
+        <v>4.879232501644039</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.342554697349588</v>
+      </c>
       <c r="I9" s="6" t="n">
-        <v>2.378587492724662</v>
+        <v>2.299058496310908</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.585731147538703</v>
+        <v>1.552636981562187</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.075333686659483</v>
+        <v>1.789469096024146</v>
       </c>
     </row>
     <row r="10">
@@ -876,7 +878,7 @@
         <v>-7.451343908511488</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.133402216158549</v>
+        <v>-4.133402216158546</v>
       </c>
     </row>
     <row r="11">
@@ -887,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-35.81764527204646</v>
+        <v>-38.2454668474405</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-36.14287134939008</v>
+        <v>-33.5359065329883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-28.08527795431917</v>
+        <v>-28.08664925856643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.88752670017293</v>
+        <v>-15.2360043007389</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-16.80649632165712</v>
+        <v>-16.21508081789215</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.97561798664421</v>
+        <v>-15.23198745275273</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-20.3639594069001</v>
+        <v>-20.66191940058403</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-19.78744095763876</v>
+        <v>-21.4128357841164</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-16.93259698926731</v>
+        <v>-16.35490473177523</v>
       </c>
     </row>
     <row r="12">
@@ -922,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.6852763799587867</v>
+        <v>-1.292216034924961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.282393074031369</v>
+        <v>5.416162827865771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.331722098409</v>
+        <v>14.78778828656683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.38428829490303</v>
+        <v>14.46537243802108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.49987928081865</v>
+        <v>16.038888897848</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.95891392227298</v>
+        <v>13.55693905523404</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.614627298127457</v>
+        <v>2.714196150704707</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.730906179813808</v>
+        <v>3.740205527152658</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.144600874946148</v>
+        <v>7.827209431017305</v>
       </c>
     </row>
     <row r="13">
@@ -981,7 +983,7 @@
         <v>-0.3112565500997687</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1726599295070324</v>
+        <v>-0.1726599295070323</v>
       </c>
     </row>
     <row r="14">
@@ -992,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7696924163060666</v>
+        <v>-0.7752157449945002</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.738978058265911</v>
+        <v>-0.7409993655128327</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6135964319100178</v>
+        <v>-0.6031395557812977</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6563087056818915</v>
+        <v>-0.6707884759102632</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7424082102500972</v>
+        <v>-0.7024697814863164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5909225830964606</v>
+        <v>-0.6146657818559773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6202368858302276</v>
+        <v>-0.6513162921730287</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.633343406207896</v>
+        <v>-0.6555305747548912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5209173574289794</v>
+        <v>-0.5125481551984156</v>
       </c>
     </row>
     <row r="15">
@@ -1027,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0100605325612384</v>
+        <v>-0.02646342956130024</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2919376985147632</v>
+        <v>0.2566746360445481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7162300483889671</v>
+        <v>0.6648601523869887</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.20938437523287</v>
+        <v>3.272362345475686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.675683678942694</v>
+        <v>4.129839866058046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.028265507142017</v>
+        <v>4.017205008045956</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1829446902996482</v>
+        <v>0.1779074465052708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4580153494684485</v>
+        <v>0.2477931217438936</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.562942612824461</v>
+        <v>0.4922575094318216</v>
       </c>
     </row>
     <row r="16">
@@ -1101,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.04674871044769</v>
+        <v>-14.17488697512604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-23.9095419578841</v>
+        <v>-25.73650300760496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.75748203697033</v>
+        <v>-13.68115138444304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-42.96561502337375</v>
+        <v>-44.09845339433277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-39.15846825629629</v>
+        <v>-39.46573386268698</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-39.76536144646992</v>
+        <v>-41.74042949225284</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-19.94709426029516</v>
+        <v>-20.27374181735706</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-23.565437019682</v>
+        <v>-23.19931111778284</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-17.60196334379525</v>
+        <v>-17.01043126533441</v>
       </c>
     </row>
     <row r="18">
@@ -1136,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.73672892554536</v>
+        <v>18.72076143082475</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.836774884365216</v>
+        <v>9.109118303562379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.82634950841172</v>
+        <v>23.4201781794445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.367268372929087</v>
+        <v>0.09798925358229776</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.693834140562069</v>
+        <v>8.221293196520749</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.298565026604178</v>
+        <v>1.250438518414006</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.140545534678973</v>
+        <v>6.325051028600086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.756478821648369</v>
+        <v>5.144725139706146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.31279116691527</v>
+        <v>9.747814760961489</v>
       </c>
     </row>
     <row r="19">
@@ -1186,7 +1188,7 @@
         <v>-0.4146906380573549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4948701365051202</v>
+        <v>-0.49487013650512</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2457416994741777</v>
@@ -1206,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4529953385253348</v>
+        <v>-0.4668354871655155</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7548856915702036</v>
+        <v>-0.789605863267365</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3687471927031228</v>
+        <v>-0.4853439887395652</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8223210199059312</v>
+        <v>-0.8144539610885133</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7371349320650695</v>
+        <v>-0.7393857442416951</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7491026839112803</v>
+        <v>-0.7715915628165518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5460496515354827</v>
+        <v>-0.5379607596120758</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6648644681662306</v>
+        <v>-0.6350737807799913</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4862476514001733</v>
+        <v>-0.4751843947124701</v>
       </c>
     </row>
     <row r="21">
@@ -1241,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.515907920015741</v>
+        <v>1.544949927790182</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9735898717379532</v>
+        <v>0.7935229348479694</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.124586759696821</v>
+        <v>1.852439179316854</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06793420386386781</v>
+        <v>0.1759392980001706</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3992662501787662</v>
+        <v>0.4131622941051196</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1816192832607355</v>
+        <v>0.1990646991346981</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2731731956264576</v>
+        <v>0.3819183453199401</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2263412008708983</v>
+        <v>0.302597338055164</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5581489811911277</v>
+        <v>0.523518148565649</v>
       </c>
     </row>
     <row r="22">
@@ -1295,7 +1297,7 @@
         <v>-22.82170183325007</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.08660111755735</v>
+        <v>11.08660111755736</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-18.25009147785003</v>
@@ -1315,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-43.04714065880428</v>
+        <v>-43.48039383335095</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-49.82806109069946</v>
+        <v>-48.99612495674847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-48.98870700585488</v>
+        <v>-47.69221906105573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-42.77098495293351</v>
+        <v>-45.28030106899919</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-54.67231637646568</v>
+        <v>-56.42857071699319</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-25.99196390047434</v>
+        <v>-21.41110882404287</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-37.71836597317802</v>
+        <v>-37.89507508281182</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-46.06953111480432</v>
+        <v>-48.17434508760569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-29.30998856286693</v>
+        <v>-31.690027082609</v>
       </c>
     </row>
     <row r="24">
@@ -1350,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.530979422529418</v>
+        <v>7.627499852777864</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.654649817444949</v>
+        <v>8.787942887788898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9239784150123729</v>
+        <v>1.759825282511204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.41225322182029</v>
+        <v>17.46328117424335</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4381847969007246</v>
+        <v>0.6948382273202738</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.86580233483676</v>
+        <v>39.41363407875838</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.855577878642193</v>
+        <v>3.323303041994782</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.106753973370887</v>
+        <v>-5.860219237544199</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.80244027574206</v>
+        <v>8.160429206601769</v>
       </c>
     </row>
     <row r="25">
@@ -1400,7 +1402,7 @@
         <v>-0.825803669583632</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4011688502892438</v>
+        <v>0.401168850289244</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4063397880150471</v>
@@ -1420,29 +1422,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6697422604472416</v>
+        <v>-0.6688967507830637</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7761432611931307</v>
+        <v>-0.7489236828538842</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7224627255182842</v>
+        <v>-0.7349221853588748</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8740779172310099</v>
+        <v>-0.9160334532429812</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.484774327927709</v>
+        <v>-0.4312753288932741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6554886035981505</v>
+        <v>-0.6762569644007006</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8138835876579077</v>
+        <v>-0.8324470580864284</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5183533316768706</v>
+        <v>-0.5486730135033357</v>
       </c>
     </row>
     <row r="27">
@@ -1453,27 +1455,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1945125724221641</v>
+        <v>0.250926789948855</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2420221855625235</v>
+        <v>0.2724404827146376</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06731497924156732</v>
+        <v>0.05282177836693234</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="n">
-        <v>4.678041296534038</v>
-      </c>
+      <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>0.1553683516317217</v>
+        <v>0.1252518540013784</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.07322699112578403</v>
+        <v>-0.1571233687793684</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4012876836797925</v>
+        <v>0.2878585929853957</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1512,7 @@
         <v>-8.699863750842171</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.38578625760681</v>
+        <v>-3.385786257606807</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-17.48077436282418</v>
+        <v>-16.88695940843915</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.32869861361088</v>
+        <v>-21.75341549293521</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.09054674896265</v>
+        <v>-17.94981475916615</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.04923447866076</v>
+        <v>-13.38730989081315</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.09665297181312</v>
+        <v>-15.10364015169004</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.31590552132648</v>
+        <v>-10.88321192871277</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-12.81381203579404</v>
+        <v>-12.51243069691589</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.91913649187517</v>
+        <v>-16.45754724979007</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.62269070136724</v>
+        <v>-12.26902165336845</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.988701110859302</v>
+        <v>3.02441378283696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4077612297002101</v>
+        <v>0.09800782767502578</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.097960842927189</v>
+        <v>4.975579129703105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.639607864582921</v>
+        <v>6.3135210556721</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.106386425625812</v>
+        <v>5.222017160809044</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.09530972279096</v>
+        <v>9.23328952399174</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.795295129128587</v>
+        <v>1.825934624976244</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.023974393332309</v>
+        <v>-2.068339278953171</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.902644384541648</v>
+        <v>3.57030983896657</v>
       </c>
     </row>
     <row r="31">
@@ -1617,7 +1617,7 @@
         <v>-0.3128475993453575</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.121753067970318</v>
+        <v>-0.1217530679703179</v>
       </c>
     </row>
     <row r="32">
@@ -1628,31 +1628,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4383325007094043</v>
+        <v>-0.422812401834322</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5261209608222339</v>
+        <v>-0.5424024584105758</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4401811865010022</v>
+        <v>-0.4387504296140385</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.426833823624873</v>
+        <v>-0.4607305620359827</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.542571137379897</v>
+        <v>-0.5441262484970107</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3570891748671224</v>
+        <v>-0.381695480549043</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3772936794248771</v>
+        <v>-0.3869611690662561</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4895233248302042</v>
+        <v>-0.49397933629643</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3419430555374643</v>
+        <v>-0.3507615304946352</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1663,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1568088184429836</v>
+        <v>0.1121012614449491</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.007396198761485439</v>
+        <v>0.01996773050566581</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1908730412427744</v>
+        <v>0.2027756871975972</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5454733514235134</v>
+        <v>0.453613924617738</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3527519493448752</v>
+        <v>0.3801172465925394</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7067697984375112</v>
+        <v>0.6333657936726709</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08124179984254321</v>
+        <v>0.07292548073866499</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.03609943334014602</v>
+        <v>-0.06550932223379904</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1793538121813228</v>
+        <v>0.1533579818214177</v>
       </c>
     </row>
     <row r="34">
